--- a/result1.xlsx
+++ b/result1.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="烟幕弹投放详情" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="优化结果摘要" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="烟幕弹部署策略" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,34 +441,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>投放时间(s)</t>
+          <t>部署位置比例</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>引信延迟(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>无人机飞行时间(s)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>投放位置X(m)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>投放位置Y(m)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>投放位置Z(m)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>引信延迟(s)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>爆炸时间(s)</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>爆炸位置X(m)</t>
@@ -487,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>单独遮蔽时间(s)</t>
+          <t>遮蔽时间(s)</t>
         </is>
       </c>
     </row>
@@ -496,34 +495,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.3345</v>
       </c>
       <c r="C2" t="n">
-        <v>17800</v>
+        <v>6.579</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>37.628</v>
       </c>
       <c r="E2" t="n">
-        <v>1800</v>
+        <v>13309.1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2644</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2644</v>
+        <v>1330.9</v>
       </c>
       <c r="H2" t="n">
-        <v>17649.04</v>
+        <v>12524</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1776.9</v>
+        <v>1118.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,34 +530,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1895</v>
+        <v>0.5592</v>
       </c>
       <c r="C3" t="n">
-        <v>17061.03</v>
+        <v>4.588</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>75.26000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1725.27</v>
+        <v>8815.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8204</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.0099</v>
+        <v>881.6</v>
       </c>
       <c r="H3" t="n">
-        <v>16843.69</v>
+        <v>8268</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1687.06</v>
+        <v>778.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -566,95 +565,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.722</v>
+        <v>0.5118</v>
       </c>
       <c r="C4" t="n">
-        <v>16758.67</v>
+        <v>9.718999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>67.315</v>
       </c>
       <c r="E4" t="n">
-        <v>1694.7</v>
+        <v>9764.299999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9329</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.655</v>
+        <v>976.4</v>
       </c>
       <c r="H4" t="n">
-        <v>16527.89</v>
+        <v>8604.1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1653.05</v>
+        <v>513.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>参数</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>数值</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>无人机速度(m/s)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>总遮蔽时间(s)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>遮蔽区间数量</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result1.xlsx
+++ b/result1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="烟幕弹部署策略" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,163 +436,119 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>序号</t>
+          <t>烟幕弹序号</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>部署位置比例</t>
+          <t>飞行方向(度)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>引信延迟(s)</t>
+          <t>飞行速度(m/s)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>无人机飞行时间(s)</t>
+          <t>投放延迟(s)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>投放位置X(m)</t>
+          <t>起爆延迟(s)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>投放位置Y(m)</t>
+          <t>总遮蔽时长(s)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>投放位置Z(m)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>爆炸位置X(m)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>爆炸位置Y(m)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>爆炸位置Z(m)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>遮蔽时间(s)</t>
+          <t>优化策略</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>第一枚</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3345</v>
+        <v>204.9996663948601</v>
       </c>
       <c r="C2" t="n">
-        <v>6.579</v>
+        <v>132.1608642071056</v>
       </c>
       <c r="D2" t="n">
-        <v>37.628</v>
+        <v>16.48790646905603</v>
       </c>
       <c r="E2" t="n">
-        <v>13309.1</v>
+        <v>16.39069379737229</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>1330.9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12524</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1118.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>递归策略</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>第二枚</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5592</v>
+        <v>180.7706153422086</v>
       </c>
       <c r="C3" t="n">
-        <v>4.588</v>
+        <v>85.01924659698642</v>
       </c>
       <c r="D3" t="n">
-        <v>75.26000000000001</v>
+        <v>34.86823817305093</v>
       </c>
       <c r="E3" t="n">
-        <v>8815.6</v>
+        <v>18.20256157044454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>881.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8268</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>778.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>递归策略</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>第三枚</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5118</v>
+        <v>349.3392957399682</v>
       </c>
       <c r="C4" t="n">
-        <v>9.718999999999999</v>
+        <v>119.2715947395855</v>
       </c>
       <c r="D4" t="n">
-        <v>67.315</v>
+        <v>73.98282118901916</v>
       </c>
       <c r="E4" t="n">
-        <v>9764.299999999999</v>
+        <v>7.204307579050728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>976.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8604.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>513.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>递归策略</t>
+        </is>
       </c>
     </row>
   </sheetData>
